--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/144.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/144.xlsx
@@ -479,13 +479,13 @@
         <v>0.03021634476330295</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.104048697000397</v>
+        <v>-2.005096410920708</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3433165077730991</v>
+        <v>0.2844324524452403</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1022017344154541</v>
+        <v>-0.1002908752021951</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.06089361043221784</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.162126067528589</v>
+        <v>-2.054622922572434</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3457593854493577</v>
+        <v>0.280300652251826</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.08505437010800439</v>
+        <v>-0.08845739944825648</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.08373701750740153</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.345216758727845</v>
+        <v>-2.238130728838835</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3362003673256987</v>
+        <v>0.2643306542471093</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04383867941674588</v>
+        <v>-0.05279642223606809</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.08489070303633001</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.513642313773944</v>
+        <v>-2.397951908358343</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4001244318799622</v>
+        <v>0.3228967577124653</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.08550926163406029</v>
+        <v>-0.09022030086411324</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.06344499210859687</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.561661702117024</v>
+        <v>-2.438574980850432</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4683817710751665</v>
+        <v>0.3905685617945457</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1244410505803115</v>
+        <v>-0.1248927940681248</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.02854998824896804</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.600435302141585</v>
+        <v>-2.457878751354063</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5567361864111381</v>
+        <v>0.4883120011890759</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1326196539345899</v>
+        <v>-0.1307481451993634</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.003697031625650225</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.424592968995918</v>
+        <v>-2.285074275112507</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6877591120873287</v>
+        <v>0.608057079861147</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1640780000929054</v>
+        <v>-0.1535084616933713</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.01177337485695675</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.95817017885737</v>
+        <v>-1.827750102504638</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7313421275370233</v>
+        <v>0.6517030560756938</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1642574382727337</v>
+        <v>-0.1500613598177228</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.02485585786929137</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.330171964888625</v>
+        <v>-1.231599017417169</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6447144111771187</v>
+        <v>0.5836078408499834</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1735221148207096</v>
+        <v>-0.1461829767028379</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1223133998137958</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.5747238486490419</v>
+        <v>-0.508322277997851</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4997393800097188</v>
+        <v>0.4504048986907914</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1532204161941733</v>
+        <v>-0.1220328013247215</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2800196194335752</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2823752094537004</v>
+        <v>0.3242519881759052</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2818431909907007</v>
+        <v>0.2497080166102259</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03781490823952815</v>
+        <v>-0.006986169729732877</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4891211458938851</v>
       </c>
       <c r="E13" t="n">
-        <v>1.11175893886858</v>
+        <v>1.144753527689285</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.07987427317980382</v>
+        <v>-0.08916728207196309</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03440581110311131</v>
+        <v>0.07064917539018095</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.7295921412271915</v>
       </c>
       <c r="E14" t="n">
-        <v>1.912766251564651</v>
+        <v>1.9482100141381</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5000964540699336</v>
+        <v>-0.4915495302412709</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2068868264152407</v>
+        <v>0.2420913380822519</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.9805160973403313</v>
       </c>
       <c r="E15" t="n">
-        <v>2.704826839575249</v>
+        <v>2.737579029451274</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.015554661894362</v>
+        <v>-0.9717300345095472</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3796307029206273</v>
+        <v>0.4086272831732286</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.2235818468331</v>
       </c>
       <c r="E16" t="n">
-        <v>3.3125745105389</v>
+        <v>3.361293550381399</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.524013206686365</v>
+        <v>-1.450934646922617</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5795610376891194</v>
+        <v>0.5995809868929428</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.45581820722268</v>
       </c>
       <c r="E17" t="n">
-        <v>4.040071982231986</v>
+        <v>4.092376637632808</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.099111786026437</v>
+        <v>-1.9850961369559</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7873016553375054</v>
+        <v>0.8018912385728415</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.675303607562958</v>
       </c>
       <c r="E18" t="n">
-        <v>4.557082172910016</v>
+        <v>4.614996632459154</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.575503626269743</v>
+        <v>-2.440791986782784</v>
       </c>
       <c r="G18" t="n">
-        <v>1.035529192823988</v>
+        <v>1.037737541651173</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.877106100952959</v>
       </c>
       <c r="E19" t="n">
-        <v>5.015940227151593</v>
+        <v>5.077315954748471</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.03038098615355</v>
+        <v>-2.872393538910357</v>
       </c>
       <c r="G19" t="n">
-        <v>1.313661519596062</v>
+        <v>1.296037227494858</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.053639615031265</v>
       </c>
       <c r="E20" t="n">
-        <v>5.320445244301061</v>
+        <v>5.395771503370026</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.476387961279267</v>
+        <v>-3.296512204135267</v>
       </c>
       <c r="G20" t="n">
-        <v>1.516030009983449</v>
+        <v>1.493541998797426</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.203176423998042</v>
       </c>
       <c r="E21" t="n">
-        <v>5.529482853705398</v>
+        <v>5.62103252785761</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.842413515784771</v>
+        <v>-3.656252700289417</v>
       </c>
       <c r="G21" t="n">
-        <v>1.718662935583214</v>
+        <v>1.684141548214847</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.326522582857361</v>
       </c>
       <c r="E22" t="n">
-        <v>5.692110509318185</v>
+        <v>5.797346279730107</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.134422395130232</v>
+        <v>-3.942364516996926</v>
       </c>
       <c r="G22" t="n">
-        <v>1.900695098923396</v>
+        <v>1.8559000887503</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.423509570170322</v>
       </c>
       <c r="E23" t="n">
-        <v>5.909386534803411</v>
+        <v>6.005211244889075</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.310949426593665</v>
+        <v>-4.124718567247413</v>
       </c>
       <c r="G23" t="n">
-        <v>1.969578897728878</v>
+        <v>1.924283349475208</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.492071119378524</v>
       </c>
       <c r="E24" t="n">
-        <v>5.938060441136146</v>
+        <v>6.030744983074815</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.535555659126788</v>
+        <v>-4.337565302925299</v>
       </c>
       <c r="G24" t="n">
-        <v>2.128910557301662</v>
+        <v>2.069606238868416</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.527671609987325</v>
       </c>
       <c r="E25" t="n">
-        <v>5.890633670992234</v>
+        <v>5.98313090465547</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.541244164231169</v>
+        <v>-4.361703673160005</v>
       </c>
       <c r="G25" t="n">
-        <v>2.165094108862122</v>
+        <v>2.103945040018711</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.531217320208532</v>
       </c>
       <c r="E26" t="n">
-        <v>5.860747769936098</v>
+        <v>5.934986381792245</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.550036635042754</v>
+        <v>-4.389108920080972</v>
       </c>
       <c r="G26" t="n">
-        <v>2.192581204777396</v>
+        <v>2.132192387169573</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.50514745748523</v>
       </c>
       <c r="E27" t="n">
-        <v>5.83410277425072</v>
+        <v>5.902915742195743</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.525305646608878</v>
+        <v>-4.378524428499786</v>
       </c>
       <c r="G27" t="n">
-        <v>2.226682329040375</v>
+        <v>2.162904648264393</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.455949018334244</v>
       </c>
       <c r="E28" t="n">
-        <v>5.61487339103596</v>
+        <v>5.683240911569656</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.422584371743234</v>
+        <v>-4.284825431237437</v>
       </c>
       <c r="G28" t="n">
-        <v>2.19153448206173</v>
+        <v>2.127393202868728</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.3881513911916</v>
       </c>
       <c r="E29" t="n">
-        <v>5.390125496781921</v>
+        <v>5.46814332854831</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.203982235148313</v>
+        <v>-4.092751812912918</v>
       </c>
       <c r="G29" t="n">
-        <v>2.149160313297195</v>
+        <v>2.081863125765984</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.30663314425975</v>
       </c>
       <c r="E30" t="n">
-        <v>5.127966316052806</v>
+        <v>5.215527425751642</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.070131584120706</v>
+        <v>-3.96906539036111</v>
       </c>
       <c r="G30" t="n">
-        <v>2.01848367182769</v>
+        <v>1.969075211610062</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.216099225095031</v>
       </c>
       <c r="E31" t="n">
-        <v>4.854543454491663</v>
+        <v>4.944338097323625</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.912259827282929</v>
+        <v>-3.822643835621235</v>
       </c>
       <c r="G31" t="n">
-        <v>1.904543575674976</v>
+        <v>1.859474686174774</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.120312849256855</v>
       </c>
       <c r="E32" t="n">
-        <v>4.589264567864131</v>
+        <v>4.680247595132674</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.746333027591895</v>
+        <v>-3.667151208685303</v>
       </c>
       <c r="G32" t="n">
-        <v>1.782171459089454</v>
+        <v>1.74578958111971</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.025030119821915</v>
       </c>
       <c r="E33" t="n">
-        <v>4.319043261195714</v>
+        <v>4.404122142740258</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.60779022556369</v>
+        <v>-3.524658405672195</v>
       </c>
       <c r="G33" t="n">
-        <v>1.663676151599696</v>
+        <v>1.624157253521199</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.933213027563382</v>
       </c>
       <c r="E34" t="n">
-        <v>3.97574496878267</v>
+        <v>4.063926242015298</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.483862978086324</v>
+        <v>-3.397533538349905</v>
       </c>
       <c r="G34" t="n">
-        <v>1.516779243085188</v>
+        <v>1.490500993855073</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.846858326863983</v>
       </c>
       <c r="E35" t="n">
-        <v>3.640242793077428</v>
+        <v>3.71790017446504</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.329538273338398</v>
+        <v>-3.262249742912354</v>
       </c>
       <c r="G35" t="n">
-        <v>1.381424616787178</v>
+        <v>1.3563536402231</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.762278844028327</v>
       </c>
       <c r="E36" t="n">
-        <v>3.348391315644097</v>
+        <v>3.4182447102283</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.235220686561378</v>
+        <v>-3.166181059862888</v>
       </c>
       <c r="G36" t="n">
-        <v>1.264275095646131</v>
+        <v>1.23875080157512</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.678482386230936</v>
       </c>
       <c r="E37" t="n">
-        <v>3.049321386520481</v>
+        <v>3.111495141811858</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.124572651400864</v>
+        <v>-3.050149879307526</v>
       </c>
       <c r="G37" t="n">
-        <v>1.170893263236726</v>
+        <v>1.148040079614561</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.591900906043238</v>
       </c>
       <c r="E38" t="n">
-        <v>2.735422623255092</v>
+        <v>2.788241982908579</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.987676273373541</v>
+        <v>-2.924060716567052</v>
       </c>
       <c r="G38" t="n">
-        <v>1.06898024718987</v>
+        <v>1.038809448672778</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.503359674227652</v>
       </c>
       <c r="E39" t="n">
-        <v>2.393551966185067</v>
+        <v>2.449350944035177</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.83245044267867</v>
+        <v>-2.772107271625365</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9644496373442913</v>
+        <v>0.9392999598241489</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.412656244742289</v>
       </c>
       <c r="E40" t="n">
-        <v>2.097837845828065</v>
+        <v>2.164662827622885</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.698916956504005</v>
+        <v>-2.643033768630906</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9013377666566189</v>
+        <v>0.8794903812529654</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.320903146678048</v>
       </c>
       <c r="E41" t="n">
-        <v>1.877805712861441</v>
+        <v>1.93697938770762</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.602203712624366</v>
+        <v>-2.541326949088941</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7631514799593889</v>
+        <v>0.7518752069743908</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.228047432944237</v>
       </c>
       <c r="E42" t="n">
-        <v>1.622918500472736</v>
+        <v>1.684154140367818</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.480291209622264</v>
+        <v>-2.426644702920533</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6894826630251528</v>
+        <v>0.6766150567085197</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.135009183362192</v>
       </c>
       <c r="E43" t="n">
-        <v>1.356625945531085</v>
+        <v>1.423811377704684</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.373465679897829</v>
+        <v>-2.321827621594878</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6170919496174129</v>
+        <v>0.6036529743597476</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.042022639860874</v>
       </c>
       <c r="E44" t="n">
-        <v>1.110126681039791</v>
+        <v>1.182756645353969</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.303044851420397</v>
+        <v>-2.250929865323692</v>
       </c>
       <c r="G44" t="n">
-        <v>0.588610073617477</v>
+        <v>0.5710408721855187</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9495726282084067</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9046888533658681</v>
+        <v>0.9713328229617392</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.266640937182955</v>
+        <v>-2.210410678093609</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4882018198505848</v>
+        <v>0.4763289936186137</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8583569489988041</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7161591390929569</v>
+        <v>0.7834091060505288</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.200228348397915</v>
+        <v>-2.143569169098014</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4033889475375398</v>
+        <v>0.3938173372609103</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7694451437945118</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5383075705389496</v>
+        <v>0.6020191425118375</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.132323589485881</v>
+        <v>-2.071683715828212</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3697899353742554</v>
+        <v>0.3598720408909397</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6845708680905599</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3823380158092645</v>
+        <v>0.4436303203927132</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.072828027729397</v>
+        <v>-2.00747081876519</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3160057019994109</v>
+        <v>0.3033080897478782</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6038356497998386</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2827860284443598</v>
+        <v>0.3392728526504776</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.049504999399525</v>
+        <v>-1.979894003760002</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2748529720730044</v>
+        <v>0.2612377066737534</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5286726212235536</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1778099711874531</v>
+        <v>0.2348917746214225</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.974814644055564</v>
+        <v>-1.903475375420853</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2409344340280959</v>
+        <v>0.2247094449257284</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4584734856381948</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1030755433080964</v>
+        <v>0.1537070163829757</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.937056286364243</v>
+        <v>-1.867504316441769</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1921036388279846</v>
+        <v>0.176045495752475</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3949794297309051</v>
       </c>
       <c r="E52" t="n">
-        <v>0.01922282265904487</v>
+        <v>0.06525028980411959</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.909321282437364</v>
+        <v>-1.835699686076767</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1528696382104437</v>
+        <v>0.1354893190730415</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3372568122710063</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.007760587137412816</v>
+        <v>0.03182127170593558</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.876174013761893</v>
+        <v>-1.799427202435953</v>
       </c>
       <c r="G53" t="n">
-        <v>0.09992435702725244</v>
+        <v>0.08330743716368108</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2855536552713356</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.005838709790304676</v>
+        <v>0.01822332051701894</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.867497233355723</v>
+        <v>-1.794100721729472</v>
       </c>
       <c r="G54" t="n">
-        <v>0.06445541014786274</v>
+        <v>0.05103689713877438</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2383477115714582</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.0303760938722611</v>
+        <v>-0.01228589211115229</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.85343258549734</v>
+        <v>-1.777582965070542</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03882880483396624</v>
+        <v>0.02081415599067987</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1957672429467093</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.07987112514156122</v>
+        <v>-0.07073394414241073</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.905578264966911</v>
+        <v>-1.818273720384847</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.006070090601135877</v>
+        <v>-0.02233285616241458</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1563440664741798</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.07566534604944579</v>
+        <v>-0.07468158409863286</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.941806676072328</v>
+        <v>-1.848517710791079</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01568734743228308</v>
+        <v>-0.03345644929264655</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1203807975158671</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.16957762290273</v>
+        <v>-0.1697964115605908</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.922845254727579</v>
+        <v>-1.836340311859136</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.03456928081140613</v>
+        <v>-0.05959775885920836</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.08734174277743356</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2179834329400901</v>
+        <v>-0.2228597441778796</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.971742158730785</v>
+        <v>-1.875223306212627</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.08018750298494266</v>
+        <v>-0.1064279757561464</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.05789588836351214</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2848698014806415</v>
+        <v>-0.2993759617025487</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.004617909107832</v>
+        <v>-1.898491243873255</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.08794899127207635</v>
+        <v>-0.1156548758452111</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.03153539028423599</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3297686969157436</v>
+        <v>-0.3480745392964706</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.069376990805946</v>
+        <v>-1.958129254360216</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1042463852540237</v>
+        <v>-0.1351648428537331</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.007873782226587439</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4187857743017827</v>
+        <v>-0.4314440360752829</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.123232842050809</v>
+        <v>-2.011237446522462</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1218454930492867</v>
+        <v>-0.1540263139842792</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.01483266371335311</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.4719341039516217</v>
+        <v>-0.4852345655266125</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.170390454924978</v>
+        <v>-2.054468668698546</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1559544874078726</v>
+        <v>-0.192353679587951</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.03756366147194768</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.5474287830665666</v>
+        <v>-0.5562842146430043</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.226726173295451</v>
+        <v>-2.11026135047217</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.204890741889111</v>
+        <v>-0.2340069475949311</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.060203886274743</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.6323061901635849</v>
+        <v>-0.6398835182135264</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.238968107011367</v>
+        <v>-2.131947398915891</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.217454562515333</v>
+        <v>-0.2519428954821524</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.08224131946089415</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.7227131264337325</v>
+        <v>-0.7233018095850989</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.253586809600447</v>
+        <v>-2.156979812011496</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2640423804675908</v>
+        <v>-0.2975312112923842</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1022426294041694</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.7557769720957748</v>
+        <v>-0.7654666338065018</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.251413089193931</v>
+        <v>-2.159722540330363</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3010570141240978</v>
+        <v>-0.3326397077929961</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1191569836204608</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.8167843792182681</v>
+        <v>-0.8249267801327566</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.291210588656897</v>
+        <v>-2.199191069796977</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.33097439556266</v>
+        <v>-0.3637769540505663</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1316314518303195</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.8259766508866642</v>
+        <v>-0.8394888180334699</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.339822595199148</v>
+        <v>-2.24890725075282</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3425780645248886</v>
+        <v>-0.3729534855277493</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1386072533420391</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.8384302901743952</v>
+        <v>-0.8541374269858547</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.338790825665135</v>
+        <v>-2.251848305480971</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4070121112744536</v>
+        <v>-0.4318265227217589</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1396646518096437</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7694583462981204</v>
+        <v>-0.8069640739204731</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.309192183098637</v>
+        <v>-2.236064828742128</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4233110792755222</v>
+        <v>-0.4415759971590954</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1344873816816457</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.7459299084729176</v>
+        <v>-0.7941027636803252</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.332719046904718</v>
+        <v>-2.26742243767668</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4278111999433208</v>
+        <v>-0.4457770541938469</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.123103328831157</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.6076019600547706</v>
+        <v>-0.6639707328267909</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.349341475835214</v>
+        <v>-2.273120386895789</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4389599773794937</v>
+        <v>-0.4575995118139364</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1054327446086487</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.4463783294981838</v>
+        <v>-0.5207696212090969</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.396055215317176</v>
+        <v>-2.31577945312128</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.463999473561145</v>
+        <v>-0.4796231873591756</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.0823744130894364</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.308920813654116</v>
+        <v>-0.3914072857058786</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.375685833868423</v>
+        <v>-2.300827058478484</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4527578289968154</v>
+        <v>-0.4695966855564902</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.05544036859210185</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1456509582398383</v>
+        <v>-0.2345169297902325</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.366725730020419</v>
+        <v>-2.291838622286297</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4687372711162601</v>
+        <v>-0.4759604448639089</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.02684230432687546</v>
       </c>
       <c r="E77" t="n">
-        <v>0.091379007217711</v>
+        <v>-0.01624769823946613</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.329744150765459</v>
+        <v>-2.254222713325452</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4374977136158053</v>
+        <v>-0.4497955250105276</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.00169752547642966</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2864597890734756</v>
+        <v>0.1712777918340552</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.354351578698314</v>
+        <v>-2.271828904206762</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4214962352286625</v>
+        <v>-0.4277183328151641</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.02880204012456876</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5524076338275612</v>
+        <v>0.4183106488074704</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.270606678359071</v>
+        <v>-2.194010185859216</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4332305477779591</v>
+        <v>-0.4316156041595046</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.05314455994853345</v>
       </c>
       <c r="E80" t="n">
-        <v>0.7795858136048894</v>
+        <v>0.6363831279680742</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.160599268980927</v>
+        <v>-2.093786092329516</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3857565570604091</v>
+        <v>-0.3858210918443824</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.07444460476903307</v>
       </c>
       <c r="E81" t="n">
-        <v>1.006605017450966</v>
+        <v>0.8603880851968603</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.134917572997785</v>
+        <v>-2.071364976956148</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3391844792993643</v>
+        <v>-0.3383171947635277</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.09234658297100633</v>
       </c>
       <c r="E82" t="n">
-        <v>1.254237575709597</v>
+        <v>1.103569317380453</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.0198268688674</v>
+        <v>-1.966221286662823</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2814053853946587</v>
+        <v>-0.2840481634993225</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.1068824580410601</v>
       </c>
       <c r="E83" t="n">
-        <v>1.515485399367479</v>
+        <v>1.358088209294774</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.970868578118463</v>
+        <v>-1.917347205936876</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2763417658814344</v>
+        <v>-0.2672832858383489</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1180054221764443</v>
       </c>
       <c r="E84" t="n">
-        <v>1.805523606773071</v>
+        <v>1.634945580578594</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.840623217888195</v>
+        <v>-1.798222290798598</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2182494421715899</v>
+        <v>-0.210837386129385</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1244970525062947</v>
       </c>
       <c r="E85" t="n">
-        <v>2.03783308888584</v>
+        <v>1.872342292491407</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.708457554329941</v>
+        <v>-1.676345990236285</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1828828065350847</v>
+        <v>-0.1757068533610749</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1254916459393562</v>
       </c>
       <c r="E86" t="n">
-        <v>2.225545887234796</v>
+        <v>2.057360370104696</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.531695207007873</v>
+        <v>-1.512668463869591</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1547849912007462</v>
+        <v>-0.1415773967539121</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1196928196518238</v>
       </c>
       <c r="E87" t="n">
-        <v>2.461248954573088</v>
+        <v>2.285478239297441</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.381143426093705</v>
+        <v>-1.367228310051847</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1438502803650703</v>
+        <v>-0.1271562335645552</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.105973012844922</v>
       </c>
       <c r="E88" t="n">
-        <v>2.57951760330938</v>
+        <v>2.412328440283063</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.159582920560299</v>
+        <v>-1.162953682508564</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1247574284236929</v>
+        <v>-0.1015689787286912</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.0845239926436317</v>
       </c>
       <c r="E89" t="n">
-        <v>2.700192927282139</v>
+        <v>2.530457001317559</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.941668630321386</v>
+        <v>-0.9519792425754662</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1260890486003133</v>
+        <v>-0.09501633712671645</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.05635162353594558</v>
       </c>
       <c r="E90" t="n">
-        <v>2.765668974690005</v>
+        <v>2.595500193467067</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7561264043407036</v>
+        <v>-0.781527924920254</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.09805576804994807</v>
+        <v>-0.06998785907891421</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.02299882821590605</v>
       </c>
       <c r="E91" t="n">
-        <v>2.816426369294589</v>
+        <v>2.650409850513642</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5995256679433768</v>
+        <v>-0.6202098532163891</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1603759071196062</v>
+        <v>-0.1208396948307755</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.0137155870680158</v>
       </c>
       <c r="E92" t="n">
-        <v>2.837031853611536</v>
+        <v>2.680083258988402</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.385871460456264</v>
+        <v>-0.4105001376472559</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1235942282930517</v>
+        <v>-0.09015891411838252</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.05341174519650797</v>
       </c>
       <c r="E93" t="n">
-        <v>2.796552803869047</v>
+        <v>2.647025709402845</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2557897982146113</v>
+        <v>-0.2749015383854442</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.136227305760611</v>
+        <v>-0.1073975715348676</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.09711547645757936</v>
       </c>
       <c r="E94" t="n">
-        <v>2.740135236504266</v>
+        <v>2.595457694950792</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.09235309677347568</v>
+        <v>-0.1067081511597379</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1560253182683311</v>
+        <v>-0.1234683067633477</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1484520974941977</v>
       </c>
       <c r="E95" t="n">
-        <v>2.617106753945162</v>
+        <v>2.483066433613438</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07140785260664788</v>
+        <v>0.0581829439494795</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.132018378630253</v>
+        <v>-0.1036325177967164</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2066245803362385</v>
       </c>
       <c r="E96" t="n">
-        <v>2.462665571782259</v>
+        <v>2.342035894364017</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1264717635271098</v>
+        <v>0.1204180859865874</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1711768263299715</v>
+        <v>-0.1461200159379859</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2697637243753901</v>
       </c>
       <c r="E97" t="n">
-        <v>2.258428720697888</v>
+        <v>2.141756127350596</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1611521268267279</v>
+        <v>0.1621768132746946</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2057202499660364</v>
+        <v>-0.1777546522378871</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3350311349926769</v>
       </c>
       <c r="E98" t="n">
-        <v>2.079258124120231</v>
+        <v>1.963185232058155</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1969122672435582</v>
+        <v>0.1965045962911413</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.2172168856280166</v>
+        <v>-0.1893598952192371</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.399633587240588</v>
       </c>
       <c r="E99" t="n">
-        <v>1.927777671924496</v>
+        <v>1.810220479831032</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2126194040550178</v>
+        <v>0.2113413005285216</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2536853346494323</v>
+        <v>-0.222165601745386</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.4564610466124863</v>
       </c>
       <c r="E100" t="n">
-        <v>1.710484332228936</v>
+        <v>1.598500741843998</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2214512253446359</v>
+        <v>0.2159122520567788</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2809662340598158</v>
+        <v>-0.2495708486663523</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4988988154493867</v>
       </c>
       <c r="E101" t="n">
-        <v>1.579725841765124</v>
+        <v>1.468601665820416</v>
       </c>
       <c r="F101" t="n">
-        <v>0.22421520292164</v>
+        <v>0.2132978062962984</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3234238258377806</v>
+        <v>-0.2879312686715713</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.5172828162988052</v>
       </c>
       <c r="E102" t="n">
-        <v>1.363273028280338</v>
+        <v>1.279933437864831</v>
       </c>
       <c r="F102" t="n">
-        <v>0.227508050923401</v>
+        <v>0.2150748738842468</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3177510609246129</v>
+        <v>-0.2792143507778082</v>
       </c>
     </row>
   </sheetData>
